--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/17/word_level_predictions_17.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G5" s="2" t="b">
@@ -705,7 +705,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G26" s="2" t="b">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G74" s="2" t="b">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G85" s="2" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G86" s="2" t="b">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G88" s="2" t="b">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G89" s="2" t="b">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G104" s="2" t="b">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G105" s="2" t="b">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G106" s="2" t="b">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G107" s="2" t="b">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_E</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7678,104 +7678,104 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>6</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" s="2" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>6</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
+      <c r="D141" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G142" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G170" s="2" t="b">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/original_remove/rem5/17/word_level_predictions_17.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G5" s="2" t="b">
@@ -705,7 +705,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G11" s="2" t="b">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G26" s="2" t="b">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="F74" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G74" s="2" t="b">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="F77" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G77" s="2" t="b">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4841,7 +4841,7 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G85" s="2" t="b">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G86" s="2" t="b">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="F88" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G88" s="2" t="b">
@@ -5021,7 +5021,7 @@
       </c>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5049,7 +5049,7 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G89" s="2" t="b">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G104" s="2" t="b">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G105" s="2" t="b">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G106" s="2" t="b">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G107" s="2" t="b">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="F124" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G124" s="2" t="b">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -7678,104 +7678,104 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
+      <c r="A140" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C140" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="inlineStr">
+      <c r="D140" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="F140" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>abnormal</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>6</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>abnormal</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="F142" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G142" s="2" t="b">
@@ -7817,11 +7817,11 @@
         </is>
       </c>
       <c r="I142" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K142" s="2" t="b">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G170" s="2" t="b">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="L170" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
